--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1927,28 +1927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.241997648165</v>
+        <v>182.8146831204671</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.2535323392968</v>
+        <v>250.1351146599139</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.809686445925</v>
+        <v>226.2625703836827</v>
       </c>
       <c r="AD2" t="n">
-        <v>141241.997648165</v>
+        <v>182814.6831204671</v>
       </c>
       <c r="AE2" t="n">
-        <v>193253.5323392968</v>
+        <v>250135.1146599139</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.508721981416354e-06</v>
+        <v>4.241118982838638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.072916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>174809.686445925</v>
+        <v>226262.5703836827</v>
       </c>
     </row>
     <row r="3">
@@ -2033,28 +2033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.8140227463255</v>
+        <v>147.3866187100766</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.7794141066807</v>
+        <v>201.6608739577494</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.9618700235622</v>
+        <v>182.4146431800933</v>
       </c>
       <c r="AD3" t="n">
-        <v>105814.0227463255</v>
+        <v>147386.6187100766</v>
       </c>
       <c r="AE3" t="n">
-        <v>144779.4141066807</v>
+        <v>201660.8739577494</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.054609838387337e-06</v>
+        <v>5.163969489929765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.631944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>130961.8700235622</v>
+        <v>182414.6431800933</v>
       </c>
     </row>
     <row r="4">
@@ -2139,28 +2139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.008032395861</v>
+        <v>132.1662336635825</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.2036460838483</v>
+        <v>180.8356716611488</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.0136840716784</v>
+        <v>163.5769689623186</v>
       </c>
       <c r="AD4" t="n">
-        <v>101008.032395861</v>
+        <v>132166.2336635825</v>
       </c>
       <c r="AE4" t="n">
-        <v>138203.6460838483</v>
+        <v>180835.6716611488</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.237373849166095e-06</v>
+        <v>5.472941118207163e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.258680555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>125013.6840716784</v>
+        <v>163576.9689623186</v>
       </c>
     </row>
     <row r="5">
@@ -2245,28 +2245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.0994557435928</v>
+        <v>131.2576570113143</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.9604914246426</v>
+        <v>179.5925170019431</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.8891743483684</v>
+        <v>162.4524592390086</v>
       </c>
       <c r="AD5" t="n">
-        <v>100099.4557435928</v>
+        <v>131257.6570113143</v>
       </c>
       <c r="AE5" t="n">
-        <v>136960.4914246426</v>
+        <v>179592.5170019431</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.268488079864445e-06</v>
+        <v>5.525541268972652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>123889.1743483684</v>
+        <v>162452.4592390086</v>
       </c>
     </row>
   </sheetData>
@@ -2542,28 +2542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.8050765068961</v>
+        <v>146.0768695470271</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.4496146360702</v>
+        <v>199.8688173708109</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.327405800678</v>
+        <v>180.7936179586445</v>
       </c>
       <c r="AD2" t="n">
-        <v>115805.0765068961</v>
+        <v>146076.8695470271</v>
       </c>
       <c r="AE2" t="n">
-        <v>158449.6146360702</v>
+        <v>199868.817370811</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.93217754757816e-06</v>
+        <v>5.077918709239691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.152777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>143327.405800678</v>
+        <v>180793.6179586445</v>
       </c>
     </row>
     <row r="3">
@@ -2648,28 +2648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.57505083156583</v>
+        <v>126.7615030171253</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.1382451382386</v>
+        <v>173.4406807507818</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.5271564794721</v>
+        <v>156.8877456054998</v>
       </c>
       <c r="AD3" t="n">
-        <v>96575.05083156584</v>
+        <v>126761.5030171253</v>
       </c>
       <c r="AE3" t="n">
-        <v>132138.2451382386</v>
+        <v>173440.6807507818</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.380939578671357e-06</v>
+        <v>5.855080759186738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>119527.1564794721</v>
+        <v>156887.7456054998</v>
       </c>
     </row>
     <row r="4">
@@ -2754,28 +2754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.81688483731033</v>
+        <v>125.0033370228697</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.73264486009</v>
+        <v>171.0350804726332</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.3511433155881</v>
+        <v>154.7117324416157</v>
       </c>
       <c r="AD4" t="n">
-        <v>94816.88483731032</v>
+        <v>125003.3370228697</v>
       </c>
       <c r="AE4" t="n">
-        <v>129732.64486009</v>
+        <v>171035.0804726332</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.458135823675659e-06</v>
+        <v>5.98876852209665e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.059027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>117351.1433155881</v>
+        <v>154711.7324416157</v>
       </c>
     </row>
   </sheetData>
@@ -3051,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.09409537344435</v>
+        <v>109.3549408655695</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.32476302578</v>
+        <v>149.6242544917103</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6046452914235</v>
+        <v>135.3443256420223</v>
       </c>
       <c r="AD2" t="n">
-        <v>82094.09537344435</v>
+        <v>109354.9408655695</v>
       </c>
       <c r="AE2" t="n">
-        <v>112324.76302578</v>
+        <v>149624.2544917103</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.877609617429546e-06</v>
+        <v>7.337271817902784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.032986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>101604.6452914235</v>
+        <v>135344.3256420223</v>
       </c>
     </row>
   </sheetData>
@@ -3348,28 +3348,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.56672278109018</v>
+        <v>116.9713637719866</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.1808973970846</v>
+        <v>160.045380325129</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.6155626279962</v>
+        <v>144.7708738520448</v>
       </c>
       <c r="AD2" t="n">
-        <v>88566.72278109018</v>
+        <v>116971.3637719866</v>
       </c>
       <c r="AE2" t="n">
-        <v>121180.8973970846</v>
+        <v>160045.380325129</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.622693801635656e-06</v>
+        <v>6.59976134885052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>109615.5626279962</v>
+        <v>144770.8738520448</v>
       </c>
     </row>
     <row r="3">
@@ -3454,28 +3454,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.12140654207477</v>
+        <v>114.9372479488209</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.5209107871554</v>
+        <v>157.2622133170184</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.45014316118439</v>
+        <v>142.253328396988</v>
       </c>
       <c r="AD3" t="n">
-        <v>77121.40654207476</v>
+        <v>114937.2479488208</v>
       </c>
       <c r="AE3" t="n">
-        <v>105520.9107871554</v>
+        <v>157262.2133170184</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.751421186460004e-06</v>
+        <v>6.834274687658994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>95450.14316118439</v>
+        <v>142253.328396988</v>
       </c>
     </row>
   </sheetData>
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.70153613681481</v>
+        <v>105.0242346919959</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.6829138090754</v>
+        <v>143.6987912477576</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.40580764908339</v>
+        <v>129.9843802936306</v>
       </c>
       <c r="AD2" t="n">
-        <v>78701.53613681482</v>
+        <v>105024.2346919959</v>
       </c>
       <c r="AE2" t="n">
-        <v>107682.9138090754</v>
+        <v>143698.7912477576</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.926287213456834e-06</v>
+        <v>7.694257886799014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.189236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>97405.80764908339</v>
+        <v>129984.3802936306</v>
       </c>
     </row>
   </sheetData>
@@ -4048,28 +4048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.2902320717735</v>
+        <v>159.8224658312451</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.2181582341451</v>
+        <v>218.6761486197782</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.6408462904472</v>
+        <v>197.8060039094714</v>
       </c>
       <c r="AD2" t="n">
-        <v>119290.2320717735</v>
+        <v>159822.4658312451</v>
       </c>
       <c r="AE2" t="n">
-        <v>163218.1582341451</v>
+        <v>218676.1486197782</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.822252061231857e-06</v>
+        <v>4.855631633582931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.361111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>147640.8462904472</v>
+        <v>197806.0039094714</v>
       </c>
     </row>
     <row r="3">
@@ -4154,28 +4154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.58351110396764</v>
+        <v>130.0253792279949</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.2545532068367</v>
+        <v>177.9064601745474</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.2506098832792</v>
+        <v>160.9273173088234</v>
       </c>
       <c r="AD3" t="n">
-        <v>99583.51110396764</v>
+        <v>130025.3792279949</v>
       </c>
       <c r="AE3" t="n">
-        <v>136254.5532068367</v>
+        <v>177906.4601745474</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.257435001587653e-06</v>
+        <v>5.604355704197983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>123250.6098832792</v>
+        <v>160927.3173088234</v>
       </c>
     </row>
     <row r="4">
@@ -4260,28 +4260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.85228539596152</v>
+        <v>126.2941535199888</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.1493255830847</v>
+        <v>172.8012325507953</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.6326180187044</v>
+        <v>156.3093254442486</v>
       </c>
       <c r="AD4" t="n">
-        <v>95852.28539596152</v>
+        <v>126294.1535199888</v>
       </c>
       <c r="AE4" t="n">
-        <v>131149.3255830847</v>
+        <v>172801.2325507953</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.416614420879787e-06</v>
+        <v>5.878220903677325e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>118632.6180187045</v>
+        <v>156309.3254442486</v>
       </c>
     </row>
   </sheetData>
@@ -4557,28 +4557,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.98379170707089</v>
+        <v>102.7509668098138</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.3326200987651</v>
+        <v>140.5884058418568</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.27982267182642</v>
+        <v>127.1708457054147</v>
       </c>
       <c r="AD2" t="n">
-        <v>76983.79170707089</v>
+        <v>102750.9668098138</v>
       </c>
       <c r="AE2" t="n">
-        <v>105332.6200987651</v>
+        <v>140588.4058418568</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.889993798976832e-06</v>
+        <v>7.798116434052409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>95279.82267182642</v>
+        <v>127170.8457054147</v>
       </c>
     </row>
   </sheetData>
@@ -4854,28 +4854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.57176415251872</v>
+        <v>138.7434302752064</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.2384805096254</v>
+        <v>189.8348822306036</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.2360711417315</v>
+        <v>171.717307505499</v>
       </c>
       <c r="AD2" t="n">
-        <v>99571.76415251872</v>
+        <v>138743.4302752064</v>
       </c>
       <c r="AE2" t="n">
-        <v>136238.4805096254</v>
+        <v>189834.8822306036</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.137357714490016e-06</v>
+        <v>5.556493639687371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.883680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>123236.0711417315</v>
+        <v>171717.307505499</v>
       </c>
     </row>
     <row r="3">
@@ -4960,28 +4960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.01583264800243</v>
+        <v>120.1021579161184</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.8494363952369</v>
+        <v>164.3290709940176</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.270121763865</v>
+        <v>148.6457350956937</v>
       </c>
       <c r="AD3" t="n">
-        <v>81015.83264800243</v>
+        <v>120102.1579161184</v>
       </c>
       <c r="AE3" t="n">
-        <v>110849.4363952369</v>
+        <v>164329.0709940176</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.598179208332585e-06</v>
+        <v>6.372642747499161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>100270.1217638651</v>
+        <v>148645.7350956937</v>
       </c>
     </row>
   </sheetData>
@@ -5257,28 +5257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.7294202456544</v>
+        <v>142.6528461663848</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.5589248822066</v>
+        <v>195.183917524168</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.1441783671767</v>
+        <v>176.5558383780653</v>
       </c>
       <c r="AD2" t="n">
-        <v>102729.4202456544</v>
+        <v>142652.8461663848</v>
       </c>
       <c r="AE2" t="n">
-        <v>140558.9248822065</v>
+        <v>195183.917524168</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.034959823973527e-06</v>
+        <v>5.292704922732744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.970486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>127144.1783671767</v>
+        <v>176555.8383780654</v>
       </c>
     </row>
     <row r="3">
@@ -5363,28 +5363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.04859157624672</v>
+        <v>123.9699153117027</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.6814321255968</v>
+        <v>169.6211072960669</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.4002568490882</v>
+        <v>153.4327068804966</v>
       </c>
       <c r="AD3" t="n">
-        <v>94048.59157624672</v>
+        <v>123969.9153117027</v>
       </c>
       <c r="AE3" t="n">
-        <v>128681.4321255968</v>
+        <v>169621.1072960669</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.477697784753493e-06</v>
+        <v>6.06480126680653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.085069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>116400.2568490882</v>
+        <v>153432.7068804966</v>
       </c>
     </row>
     <row r="4">
@@ -5469,28 +5469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.73802784477616</v>
+        <v>123.6593515802321</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.2565051270941</v>
+        <v>169.1961802975642</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.0158842869337</v>
+        <v>153.0483343183421</v>
       </c>
       <c r="AD4" t="n">
-        <v>93738.02784477615</v>
+        <v>123659.3515802321</v>
       </c>
       <c r="AE4" t="n">
-        <v>128256.5051270941</v>
+        <v>169196.1802975642</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.495711513378522e-06</v>
+        <v>6.096215636584129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>116015.8842869337</v>
+        <v>153048.3343183421</v>
       </c>
     </row>
   </sheetData>
@@ -5766,28 +5766,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.1268548601678</v>
+        <v>168.4765561555647</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.9405712606181</v>
+        <v>230.5170567930259</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.3399272666782</v>
+        <v>208.5168324254872</v>
       </c>
       <c r="AD2" t="n">
-        <v>127126.8548601678</v>
+        <v>168476.5561555647</v>
       </c>
       <c r="AE2" t="n">
-        <v>173940.5712606181</v>
+        <v>230517.0567930259</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.59827880603677e-06</v>
+        <v>4.416901765752226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>157339.9272666782</v>
+        <v>208516.8324254872</v>
       </c>
     </row>
     <row r="3">
@@ -5872,28 +5872,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.1177362724518</v>
+        <v>134.0447608979789</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.0902360013646</v>
+        <v>183.4059554980212</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.6247818988223</v>
+        <v>165.9019485172168</v>
       </c>
       <c r="AD3" t="n">
-        <v>103117.7362724518</v>
+        <v>134044.7608979789</v>
       </c>
       <c r="AE3" t="n">
-        <v>141090.2360013646</v>
+        <v>183405.9554980212</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.148506982016558e-06</v>
+        <v>5.352253197786866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>127624.7818988223</v>
+        <v>165901.9485172168</v>
       </c>
     </row>
     <row r="4">
@@ -5978,28 +5978,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.89991143497687</v>
+        <v>129.826936060504</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.3192219814351</v>
+        <v>177.6349414780917</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.404545357284</v>
+        <v>160.6817119756785</v>
       </c>
       <c r="AD4" t="n">
-        <v>98899.91143497688</v>
+        <v>129826.936060504</v>
       </c>
       <c r="AE4" t="n">
-        <v>135319.2219814351</v>
+        <v>177634.9414780917</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.300263235119681e-06</v>
+        <v>5.610228770207266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.189236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>122404.545357284</v>
+        <v>160681.7119756785</v>
       </c>
     </row>
     <row r="5">
@@ -6084,28 +6084,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.5709143760634</v>
+        <v>129.4979390015905</v>
       </c>
       <c r="AB5" t="n">
-        <v>134.8690736911041</v>
+        <v>177.1847931877606</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.9973585879949</v>
+        <v>160.2745252063894</v>
       </c>
       <c r="AD5" t="n">
-        <v>98570.9143760634</v>
+        <v>129497.9390015905</v>
       </c>
       <c r="AE5" t="n">
-        <v>134869.0736911041</v>
+        <v>177184.7931877607</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.325132438147589e-06</v>
+        <v>5.652504767113989e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>121997.3585879949</v>
+        <v>160274.5252063894</v>
       </c>
     </row>
   </sheetData>
@@ -6381,28 +6381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.06587491061367</v>
+        <v>120.8050626480547</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.9685917123931</v>
+        <v>165.2908162582204</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.9463261174244</v>
+        <v>149.5156927416993</v>
       </c>
       <c r="AD2" t="n">
-        <v>92065.87491061367</v>
+        <v>120805.0626480547</v>
       </c>
       <c r="AE2" t="n">
-        <v>125968.5917123931</v>
+        <v>165290.8162582204</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.456703288738702e-06</v>
+        <v>6.233254023663253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>113946.3261174244</v>
+        <v>149515.6927416993</v>
       </c>
     </row>
     <row r="3">
@@ -6487,28 +6487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.42217348512777</v>
+        <v>117.1613612225688</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.983118673284</v>
+        <v>160.3053432191114</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.4366596280109</v>
+        <v>145.0060262522858</v>
       </c>
       <c r="AD3" t="n">
-        <v>88422.17348512777</v>
+        <v>117161.3612225688</v>
       </c>
       <c r="AE3" t="n">
-        <v>120983.118673284</v>
+        <v>160305.3432191114</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.674766049315599e-06</v>
+        <v>6.626472783342516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>109436.6596280109</v>
+        <v>145006.0262522858</v>
       </c>
     </row>
   </sheetData>
@@ -6784,28 +6784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.27937236961449</v>
+        <v>111.1155726583757</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.6323142506985</v>
+        <v>152.0332285842194</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.93266882048619</v>
+        <v>137.5233906281595</v>
       </c>
       <c r="AD2" t="n">
-        <v>74279.37236961449</v>
+        <v>111115.5726583757</v>
       </c>
       <c r="AE2" t="n">
-        <v>101632.3142506985</v>
+        <v>152033.2285842194</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.838971116335531e-06</v>
+        <v>7.162293003843794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>91932.66882048619</v>
+        <v>137523.3906281595</v>
       </c>
     </row>
   </sheetData>
@@ -11342,28 +11342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.3664946429633</v>
+        <v>107.1817112364205</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.9609834899719</v>
+        <v>146.6507458369855</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.46646155692672</v>
+        <v>132.6546044799578</v>
       </c>
       <c r="AD2" t="n">
-        <v>80366.4946429633</v>
+        <v>107181.7112364205</v>
       </c>
       <c r="AE2" t="n">
-        <v>109960.9834899719</v>
+        <v>146650.7458369855</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.918741762556489e-06</v>
+        <v>7.535885730478548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>99466.46155692672</v>
+        <v>132654.6044799578</v>
       </c>
     </row>
   </sheetData>
@@ -11639,28 +11639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.93965493464182</v>
+        <v>108.4625810804803</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.5357419857793</v>
+        <v>148.4032884656166</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.74987468050001</v>
+        <v>134.239886899822</v>
       </c>
       <c r="AD2" t="n">
-        <v>74939.65493464182</v>
+        <v>108462.5810804803</v>
       </c>
       <c r="AE2" t="n">
-        <v>102535.7419857793</v>
+        <v>148403.2884656166</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.803285780569274e-06</v>
+        <v>7.844654669950751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>92749.87468050001</v>
+        <v>134239.886899822</v>
       </c>
     </row>
   </sheetData>
@@ -11936,28 +11936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.327547023917</v>
+        <v>139.8831100500944</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.2725759770591</v>
+        <v>191.3942423777278</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.1714739891158</v>
+        <v>173.1278445087578</v>
       </c>
       <c r="AD2" t="n">
-        <v>100327.547023917</v>
+        <v>139883.1100500944</v>
       </c>
       <c r="AE2" t="n">
-        <v>137272.5759770591</v>
+        <v>191394.2423777278</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.124368050269301e-06</v>
+        <v>5.489391414953025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.840277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>124171.4739891158</v>
+        <v>173127.8445087578</v>
       </c>
     </row>
     <row r="3">
@@ -12042,28 +12042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.2538677107116</v>
+        <v>121.8992942752528</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.225811755144</v>
+        <v>166.7879922446446</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.1789974403058</v>
+        <v>150.8699803532792</v>
       </c>
       <c r="AD3" t="n">
-        <v>92253.86771071161</v>
+        <v>121899.2942752528</v>
       </c>
       <c r="AE3" t="n">
-        <v>126225.811755144</v>
+        <v>166787.9922446446</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.540899577379542e-06</v>
+        <v>6.221220876843452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.032986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>114178.9974403058</v>
+        <v>150869.9803532792</v>
       </c>
     </row>
     <row r="4">
@@ -12148,28 +12148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.40130029571668</v>
+        <v>122.0467268602579</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.4275355222145</v>
+        <v>166.989716011715</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.3614689741682</v>
+        <v>151.0524518871416</v>
       </c>
       <c r="AD4" t="n">
-        <v>92401.30029571668</v>
+        <v>122046.7268602579</v>
       </c>
       <c r="AE4" t="n">
-        <v>126427.5355222145</v>
+        <v>166989.716011715</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.539644000342918e-06</v>
+        <v>6.219014877519826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>114361.4689741682</v>
+        <v>151052.4518871416</v>
       </c>
     </row>
   </sheetData>
@@ -12445,28 +12445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.0249106372662</v>
+        <v>164.0565377269279</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.3281102098397</v>
+        <v>224.4693925815172</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.2631116214457</v>
+        <v>203.0463487983729</v>
       </c>
       <c r="AD2" t="n">
-        <v>123024.9106372662</v>
+        <v>164056.5377269279</v>
       </c>
       <c r="AE2" t="n">
-        <v>168328.1102098397</v>
+        <v>224469.3925815172</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.713884520585691e-06</v>
+        <v>4.640440088409387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.586805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>152263.1116214457</v>
+        <v>203046.348798373</v>
       </c>
     </row>
     <row r="3">
@@ -12551,28 +12551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.9498375062277</v>
+        <v>131.6383064774534</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.1240212684747</v>
+        <v>180.1133383945836</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.9416585369299</v>
+        <v>162.9235741689131</v>
       </c>
       <c r="AD3" t="n">
-        <v>100949.8375062277</v>
+        <v>131638.3064774534</v>
       </c>
       <c r="AE3" t="n">
-        <v>138124.0212684747</v>
+        <v>180113.3383945836</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.223709061408161e-06</v>
+        <v>5.512183237147686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>124941.6585369299</v>
+        <v>162923.5741689131</v>
       </c>
     </row>
     <row r="4">
@@ -12657,28 +12657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.37476092865974</v>
+        <v>128.0632298998854</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.2324437738014</v>
+        <v>175.2217608999103</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.5169263329746</v>
+        <v>158.4988419649578</v>
       </c>
       <c r="AD4" t="n">
-        <v>97374.76092865974</v>
+        <v>128063.2298998855</v>
       </c>
       <c r="AE4" t="n">
-        <v>133232.4437738014</v>
+        <v>175221.7608999103</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.362422141454182e-06</v>
+        <v>5.749367145508451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>120516.9263329746</v>
+        <v>158498.8419649578</v>
       </c>
     </row>
   </sheetData>
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.13060750941872</v>
+        <v>113.6823213764073</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.0064764241362</v>
+        <v>155.54516741719</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.4121741128133</v>
+        <v>140.7001549479496</v>
       </c>
       <c r="AD2" t="n">
-        <v>81130.60750941873</v>
+        <v>113682.3213764073</v>
       </c>
       <c r="AE2" t="n">
-        <v>111006.4764241362</v>
+        <v>155545.16741719</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.501967218452369e-06</v>
+        <v>7.506328721840447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.552083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100412.1741128133</v>
+        <v>140700.1549479496</v>
       </c>
     </row>
   </sheetData>
@@ -13251,28 +13251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.61836847068922</v>
+        <v>113.6678490499065</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.1468289573839</v>
+        <v>155.5253657415975</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.9665000183286</v>
+        <v>140.6822431164838</v>
       </c>
       <c r="AD2" t="n">
-        <v>85618.36847068922</v>
+        <v>113667.8490499065</v>
       </c>
       <c r="AE2" t="n">
-        <v>117146.8289573839</v>
+        <v>155525.3657415975</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.761981941678284e-06</v>
+        <v>6.931197925821891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.032986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>105966.5000183286</v>
+        <v>140682.2431164838</v>
       </c>
     </row>
     <row r="3">
@@ -13357,28 +13357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.66357526229156</v>
+        <v>113.0058694534654</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.52624171518</v>
+        <v>154.6196160532687</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.64584250590211</v>
+        <v>139.8629369071811</v>
       </c>
       <c r="AD3" t="n">
-        <v>75663.57526229156</v>
+        <v>113005.8694534654</v>
       </c>
       <c r="AE3" t="n">
-        <v>103526.24171518</v>
+        <v>154619.6160532687</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.808123917529626e-06</v>
+        <v>7.016211403364387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.954861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>93645.84250590211</v>
+        <v>139862.9369071811</v>
       </c>
     </row>
   </sheetData>
@@ -13654,28 +13654,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.43898914393556</v>
+        <v>134.2087052529729</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.5838354177193</v>
+        <v>183.6302713972384</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.1210974410509</v>
+        <v>166.1048560218421</v>
       </c>
       <c r="AD2" t="n">
-        <v>95438.98914393556</v>
+        <v>134208.7052529729</v>
       </c>
       <c r="AE2" t="n">
-        <v>130583.8354177193</v>
+        <v>183630.2713972384</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.303788758703015e-06</v>
+        <v>5.901977512599945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.605902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>118121.0974410509</v>
+        <v>166104.8560218421</v>
       </c>
     </row>
     <row r="3">
@@ -13760,28 +13760,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.5680687196031</v>
+        <v>118.2524439740688</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.8685419175653</v>
+        <v>161.7982107748867</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.47828107493883</v>
+        <v>146.3564166237912</v>
       </c>
       <c r="AD3" t="n">
-        <v>79568.06871960311</v>
+        <v>118252.4439740688</v>
       </c>
       <c r="AE3" t="n">
-        <v>108868.5419175653</v>
+        <v>161798.2107748867</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.661803603403255e-06</v>
+        <v>6.541544905349137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>98478.28107493883</v>
+        <v>146356.4166237912</v>
       </c>
     </row>
   </sheetData>
